--- a/T5.xlsx
+++ b/T5.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Desktop\Project Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Desktop\singhalpriyank\ProjectF13\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="840" yWindow="0" windowWidth="25725" windowHeight="15795" tabRatio="500"/>
+    <workbookView xWindow="840" yWindow="0" windowWidth="25725" windowHeight="15795" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -398,7 +398,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>No</c:v>
+                  <c:v>Unsure</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -495,13 +495,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>22</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -516,7 +516,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Unsure</c:v>
+                  <c:v>No</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -613,13 +613,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -635,16 +635,72 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-1066618448"/>
-        <c:axId val="-1066616272"/>
+        <c:axId val="2039224544"/>
+        <c:axId val="2039222368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1066618448"/>
+        <c:axId val="2039224544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Privacy Control Models</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -682,7 +738,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1066616272"/>
+        <c:crossAx val="2039222368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -690,7 +746,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1066616272"/>
+        <c:axId val="2039222368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -710,6 +766,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Number of users</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -741,7 +853,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1066618448"/>
+        <c:crossAx val="2039224544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1726,8 +1838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3031,8 +3143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3064,30 +3176,30 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4">
+        <v>46</v>
+      </c>
+      <c r="D4">
         <v>18</v>
-      </c>
-      <c r="D4">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C5">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/T5.xlsx
+++ b/T5.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="840" yWindow="0" windowWidth="25725" windowHeight="15795" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="840" yWindow="0" windowWidth="25725" windowHeight="15795" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -101,7 +101,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -112,9 +112,17 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -159,10 +167,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -172,9 +181,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -635,11 +646,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2039224544"/>
-        <c:axId val="2039222368"/>
+        <c:axId val="1332905888"/>
+        <c:axId val="1332903712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2039224544"/>
+        <c:axId val="1332905888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -738,7 +749,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2039222368"/>
+        <c:crossAx val="1332903712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -746,7 +757,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2039222368"/>
+        <c:axId val="1332903712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -853,7 +864,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2039224544"/>
+        <c:crossAx val="1332905888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1838,7 +1849,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
@@ -3141,10 +3152,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D5"/>
+  <dimension ref="A2:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3202,6 +3213,20 @@
         <v>21</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="5">
+        <f>B3/SUM(B3:B5)</f>
+        <v>0.52272727272727271</v>
+      </c>
+      <c r="C7" s="5">
+        <f t="shared" ref="C7:D7" si="0">C3/SUM(C3:C5)</f>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" si="0"/>
+        <v>0.55681818181818177</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
